--- a/2019_dkp/2020_01_14_dkp.xlsx
+++ b/2019_dkp/2020_01_14_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BCDF58-E0B6-4933-BEF5-25CCF1C14AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097A5801-83EF-4EB1-B791-96CF47FEFCF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2486,7 +2486,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I57" s="8"/>
+      <c r="I57" s="8">
+        <v>-61</v>
+      </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="7"/>
@@ -2498,7 +2500,7 @@
       <c r="O57" s="5"/>
       <c r="P57" s="9">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">

--- a/2019_dkp/2020_01_14_dkp.xlsx
+++ b/2019_dkp/2020_01_14_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097A5801-83EF-4EB1-B791-96CF47FEFCF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C024298-132C-4969-8629-41FA26A60D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2183,7 +2183,7 @@
         <v>51</v>
       </c>
       <c r="D48" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
@@ -2206,7 +2206,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="9">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">

--- a/2019_dkp/2020_01_14_dkp.xlsx
+++ b/2019_dkp/2020_01_14_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C024298-132C-4969-8629-41FA26A60D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8A5BF-683A-4CF7-B5FE-408AAA405805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="2085" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -680,10 +680,10 @@
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -857,7 +857,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -880,7 +880,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="9">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
